--- a/tests_greedy/russia_march_greedy_complete_graphs.xlsx
+++ b/tests_greedy/russia_march_greedy_complete_graphs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>INITIAL RWC SCORE</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Opt RWC descent (ratio)</t>
+  </si>
+  <si>
+    <t>inter-community edges ratio</t>
   </si>
 </sst>
 </file>
@@ -319,11 +322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145193984"/>
-        <c:axId val="149739776"/>
+        <c:axId val="225404800"/>
+        <c:axId val="225428224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145193984"/>
+        <c:axId val="225404800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,7 +354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149739776"/>
+        <c:crossAx val="225428224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -359,7 +362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149739776"/>
+        <c:axId val="225428224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145193984"/>
+        <c:crossAx val="225404800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -630,11 +633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166079104"/>
-        <c:axId val="199794688"/>
+        <c:axId val="269366784"/>
+        <c:axId val="271131008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166079104"/>
+        <c:axId val="269366784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199794688"/>
+        <c:crossAx val="271131008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199794688"/>
+        <c:axId val="271131008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166079104"/>
+        <c:crossAx val="269366784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1074,15 +1077,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -1240,7 +1243,7 @@
         <v>-2.557733934349233E-4</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L21" si="4">L3+K4</f>
+        <f t="shared" ref="L4:L20" si="4">L3+K4</f>
         <v>1.9721652176000084</v>
       </c>
       <c r="M4">
@@ -1704,7 +1707,7 @@
         <v>1.7359574844764991</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>-6.5696988839882998E-3</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>1.7248169126853365</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>-5.9325642584205302E-3</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>1.7131595938495365</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <v>-4.7024291190763097E-3</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>1.6999715396787327</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>-4.5027648310122202E-3</v>
       </c>
@@ -1856,7 +1859,10 @@
         <v>1.6895441265633884</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C21">
         <v>-2.5549863277527199E-3</v>
       </c>
@@ -1892,6 +1898,11 @@
       <c r="M21">
         <f t="shared" si="5"/>
         <v>1.6782540042311593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.3211000000000001E-2</v>
       </c>
     </row>
   </sheetData>
